--- a/nmadb/480029.xlsx
+++ b/nmadb/480029.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="12345"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,16 +141,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>study id</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <r>
@@ -174,12 +168,18 @@
       <t xml:space="preserve"> all-cause mortality (5 year)</t>
     </r>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -344,7 +344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -528,14 +528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="3" customWidth="1"/>
@@ -543,7 +543,7 @@
     <col min="9" max="9" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -551,26 +551,26 @@
         <v>17</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -590,7 +590,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="2"/>
       <c r="C9" s="2">
         <v>4</v>
@@ -749,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" s="2">
         <v>5</v>
       </c>
@@ -795,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -815,7 +815,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="2">
         <v>6</v>
       </c>
@@ -829,7 +829,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -849,7 +849,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="C15" s="2">
         <v>7</v>
       </c>
@@ -863,7 +863,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>2009</v>
       </c>
@@ -883,7 +883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="C17" s="2">
         <v>8</v>
       </c>
@@ -897,7 +897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -917,7 +917,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="C19" s="2">
         <v>9</v>
       </c>
@@ -931,7 +931,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>2008</v>
       </c>
@@ -951,7 +951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="C21" s="2">
         <v>10</v>
       </c>
@@ -965,7 +965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>2006</v>
       </c>
@@ -985,7 +985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="C23" s="2">
         <v>11</v>
       </c>
@@ -999,7 +999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="C25" s="2">
         <v>12</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>1990</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="C27" s="2">
         <v>13</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>2010</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="C29" s="2">
         <v>14</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>2012</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="C31" s="2">
         <v>15</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="C33" s="2">
         <v>16</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>2011</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="C35" s="2">
         <v>17</v>
       </c>
